--- a/codeforces.xlsx
+++ b/codeforces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>单词</t>
   </si>
@@ -55,18 +55,45 @@
     <t>考虑</t>
   </si>
   <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>协调，坐标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>decision</t>
   </si>
   <si>
     <t>决定</t>
   </si>
   <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>直接地</t>
+  </si>
+  <si>
     <t>divide</t>
   </si>
   <si>
     <t>划分</t>
   </si>
   <si>
+    <t>enumerate</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
     <t>equal</t>
   </si>
   <si>
@@ -85,6 +112,18 @@
     <t>极其</t>
   </si>
   <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>事实</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
     <t>find out</t>
   </si>
   <si>
@@ -115,6 +154,12 @@
     <t>公斤</t>
   </si>
   <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>限制</t>
+  </si>
+  <si>
     <t>meal</t>
   </si>
   <si>
@@ -157,6 +202,12 @@
     <t>铺平</t>
   </si>
   <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>履行</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -187,18 +238,36 @@
     <t>秤</t>
   </si>
   <si>
+    <t xml:space="preserve">sequence </t>
+  </si>
+  <si>
+    <t>顺序</t>
+  </si>
+  <si>
     <t>shape</t>
   </si>
   <si>
     <t>形状</t>
   </si>
   <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
     <t>side</t>
   </si>
   <si>
     <t>边</t>
   </si>
   <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>自从</t>
+  </si>
+  <si>
     <t>Square</t>
   </si>
   <si>
@@ -233,6 +302,12 @@
   </si>
   <si>
     <t>烦人</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>全部的</t>
   </si>
   <si>
     <t> least</t>
@@ -247,8 +322,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -281,8 +356,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,11 +386,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +401,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,104 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,181 +508,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +715,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,7 +733,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,17 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -691,6 +764,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,177 +808,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,7 +974,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,13 +1296,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.8833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9666666666667" style="2" customWidth="1"/>
@@ -1287,256 +1362,355 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
+    <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
+      <c r="A15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
+      <c r="A18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
+      <c r="A19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
+      <c r="A21" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
+      <c r="A24" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
+      <c r="A25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
+      <c r="A27" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>49</v>
+      <c r="A28" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
+      <c r="A29" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
+      <c r="A30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
+      <c r="A31" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>59</v>
+      <c r="A33" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>61</v>
+      <c r="A34" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>65</v>
+      <c r="A36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>67</v>
+      <c r="A37" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:B40">
+  <sortState ref="A5:B52">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="3">

--- a/codeforces.xlsx
+++ b/codeforces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005"/>
+    <workbookView windowWidth="25200" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>单词</t>
   </si>
@@ -49,12 +49,36 @@
     <t>首都</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
     <t>consider</t>
   </si>
   <si>
     <t>考虑</t>
   </si>
   <si>
+    <t>consisting</t>
+  </si>
+  <si>
+    <t>包括</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>contiguous</t>
+  </si>
+  <si>
+    <t>连续的</t>
+  </si>
+  <si>
     <t>coordinate</t>
   </si>
   <si>
@@ -82,12 +106,24 @@
     <t>直接地</t>
   </si>
   <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>清楚的，明显的</t>
+  </si>
+  <si>
     <t>divide</t>
   </si>
   <si>
     <t>划分</t>
   </si>
   <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
     <t>enumerate</t>
   </si>
   <si>
@@ -106,6 +142,12 @@
     <t>甚至，偶数</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>精准的</t>
+  </si>
+  <si>
     <t>extremely</t>
   </si>
   <si>
@@ -184,6 +226,12 @@
     <t>场合</t>
   </si>
   <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>行动，手术</t>
+  </si>
+  <si>
     <t>opinion</t>
   </si>
   <si>
@@ -206,6 +254,18 @@
   </si>
   <si>
     <t>履行</t>
+  </si>
+  <si>
+    <t>permutation</t>
+  </si>
+  <si>
+    <t>排列</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>职位</t>
   </si>
   <si>
     <t>positive</t>
@@ -321,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -350,9 +410,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,29 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,96 +546,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -502,25 +562,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,157 +694,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,56 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +807,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -808,153 +853,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,10 +1031,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1362,46 +1422,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1414,7 +1474,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1438,7 +1498,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1454,7 +1514,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1470,7 +1530,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1478,7 +1538,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1486,7 +1546,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1510,7 +1570,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1534,7 +1594,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1542,7 +1602,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1566,7 +1626,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1574,7 +1634,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1582,7 +1642,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1590,7 +1650,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1598,7 +1658,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1606,7 +1666,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1630,7 +1690,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1646,7 +1706,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1654,7 +1714,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1662,7 +1722,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1670,7 +1730,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1686,7 +1746,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1702,16 +1762,96 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A5:B52">
-    <sortCondition ref="A5"/>
+  <sortState ref="A5:G62">
+    <sortCondition ref="A62"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
